--- a/data/emplacements.xlsx
+++ b/data/emplacements.xlsx
@@ -637,10 +637,10 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">

--- a/data/emplacements.xlsx
+++ b/data/emplacements.xlsx
@@ -637,10 +637,10 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
